--- a/src/рабочий шаблон.xlsx
+++ b/src/рабочий шаблон.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="368">
   <si>
     <t>product_id</t>
   </si>
@@ -1018,6 +1018,120 @@
   </si>
   <si>
     <t>Треска – это рыба, принадлежащая к семейству тресковых. Она разделяет одно семейство с такими рыбами, как пикша, сайка, минтай, путассу, навага, менёк, морские налимы и пр.</t>
+  </si>
+  <si>
+    <t>Общая информация</t>
+  </si>
+  <si>
+    <t>Вид рыбы</t>
+  </si>
+  <si>
+    <t>Разновидность рыбы</t>
+  </si>
+  <si>
+    <t>Производитель</t>
+  </si>
+  <si>
+    <t>Условия хранения</t>
+  </si>
+  <si>
+    <t>Разделка</t>
+  </si>
+  <si>
+    <t>Бренд</t>
+  </si>
+  <si>
+    <t>Способ обработки</t>
+  </si>
+  <si>
+    <t>Вес</t>
+  </si>
+  <si>
+    <t>Страна</t>
+  </si>
+  <si>
+    <t>Тип рыбы</t>
+  </si>
+  <si>
+    <t>Содержание жира</t>
+  </si>
+  <si>
+    <t>Состав</t>
+  </si>
+  <si>
+    <t>Тип продукта</t>
+  </si>
+  <si>
+    <t>Тип упаковки</t>
+  </si>
+  <si>
+    <t>Треска</t>
+  </si>
+  <si>
+    <t>Белая</t>
+  </si>
+  <si>
+    <t>ТОРГОВЫЙ ДОМ УЛЬТРА ФИШ ООО</t>
+  </si>
+  <si>
+    <t>При температуре не выше -18°C</t>
+  </si>
+  <si>
+    <t>Филе</t>
+  </si>
+  <si>
+    <t>ВкусАрт</t>
+  </si>
+  <si>
+    <t>Без кожи</t>
+  </si>
+  <si>
+    <t>600 г</t>
+  </si>
+  <si>
+    <t>Россия</t>
+  </si>
+  <si>
+    <t>Морская рыба</t>
+  </si>
+  <si>
+    <t>Нежирная</t>
+  </si>
+  <si>
+    <t>Треска, вода.</t>
+  </si>
+  <si>
+    <t>Замороженная рыба</t>
+  </si>
+  <si>
+    <t>Вакуумная</t>
+  </si>
+  <si>
+    <t>Пищевая ценность</t>
+  </si>
+  <si>
+    <t>Белки</t>
+  </si>
+  <si>
+    <t>Жиры</t>
+  </si>
+  <si>
+    <t>Калорийность</t>
+  </si>
+  <si>
+    <t>16 г</t>
+  </si>
+  <si>
+    <t>1 г</t>
+  </si>
+  <si>
+    <t>73 ккал</t>
+  </si>
+  <si>
+    <t>Кукурузные снеки Cheetos сыр 55 г</t>
+  </si>
+  <si>
+    <t>Кукурузные чипсы Читос со вкусом "Сыр" - вкус детства для настоящих фанатов Cheetos.</t>
   </si>
 </sst>
 </file>
@@ -1068,7 +1182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1087,6 +1201,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1391,13 +1506,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT47"/>
+  <dimension ref="A1:AT49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AE47" sqref="AE47"/>
+      <selection pane="bottomRight" activeCell="Q47" sqref="Q47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6167,9 +6282,6 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
-      <c r="L47">
-        <v>1</v>
-      </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6177,35 +6289,12 @@
         <v>50</v>
       </c>
       <c r="Q47" s="3">
-        <v>100500</v>
+        <v>299</v>
       </c>
       <c r="R47">
         <v>0</v>
       </c>
-      <c r="V47" s="4">
-        <v>0</v>
-      </c>
-      <c r="W47" t="s">
-        <v>54</v>
-      </c>
-      <c r="X47">
-        <v>0</v>
-      </c>
-      <c r="Y47">
-        <v>0</v>
-      </c>
-      <c r="Z47">
-        <v>0</v>
-      </c>
-      <c r="AA47" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB47" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC47">
-        <v>0</v>
-      </c>
+      <c r="V47" s="4"/>
       <c r="AD47" s="2" t="s">
         <v>329</v>
       </c>
@@ -6238,6 +6327,93 @@
       <c r="AT47">
         <v>1</v>
       </c>
+    </row>
+    <row r="48" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>123</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="P48" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>39</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="V48" s="4">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>54</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC48">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="AE48" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="AL48">
+        <v>7</v>
+      </c>
+      <c r="AM48">
+        <v>0</v>
+      </c>
+      <c r="AN48" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR48">
+        <v>1</v>
+      </c>
+      <c r="AS48" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -6372,7 +6548,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6554,13 +6730,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6584,6 +6760,295 @@
       </c>
       <c r="E1" s="1" t="s">
         <v>322</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>122</v>
+      </c>
+      <c r="B2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>122</v>
+      </c>
+      <c r="B3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C3" t="s">
+        <v>332</v>
+      </c>
+      <c r="D3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>122</v>
+      </c>
+      <c r="B4" t="s">
+        <v>330</v>
+      </c>
+      <c r="C4" t="s">
+        <v>333</v>
+      </c>
+      <c r="D4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>122</v>
+      </c>
+      <c r="B5" t="s">
+        <v>330</v>
+      </c>
+      <c r="C5" t="s">
+        <v>334</v>
+      </c>
+      <c r="D5" t="s">
+        <v>348</v>
+      </c>
+      <c r="E5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>122</v>
+      </c>
+      <c r="B6" t="s">
+        <v>330</v>
+      </c>
+      <c r="C6" t="s">
+        <v>335</v>
+      </c>
+      <c r="D6" t="s">
+        <v>349</v>
+      </c>
+      <c r="E6" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>122</v>
+      </c>
+      <c r="B7" t="s">
+        <v>330</v>
+      </c>
+      <c r="C7" t="s">
+        <v>336</v>
+      </c>
+      <c r="D7" t="s">
+        <v>350</v>
+      </c>
+      <c r="E7" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>122</v>
+      </c>
+      <c r="B8" t="s">
+        <v>330</v>
+      </c>
+      <c r="C8" t="s">
+        <v>337</v>
+      </c>
+      <c r="D8" t="s">
+        <v>351</v>
+      </c>
+      <c r="E8" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>122</v>
+      </c>
+      <c r="B9" t="s">
+        <v>330</v>
+      </c>
+      <c r="C9" t="s">
+        <v>338</v>
+      </c>
+      <c r="D9" t="s">
+        <v>352</v>
+      </c>
+      <c r="E9" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>122</v>
+      </c>
+      <c r="B10" t="s">
+        <v>330</v>
+      </c>
+      <c r="C10" t="s">
+        <v>339</v>
+      </c>
+      <c r="D10" t="s">
+        <v>353</v>
+      </c>
+      <c r="E10" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>122</v>
+      </c>
+      <c r="B11" t="s">
+        <v>330</v>
+      </c>
+      <c r="C11" t="s">
+        <v>340</v>
+      </c>
+      <c r="D11" t="s">
+        <v>354</v>
+      </c>
+      <c r="E11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>122</v>
+      </c>
+      <c r="B12" t="s">
+        <v>330</v>
+      </c>
+      <c r="C12" t="s">
+        <v>341</v>
+      </c>
+      <c r="D12" t="s">
+        <v>355</v>
+      </c>
+      <c r="E12" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>122</v>
+      </c>
+      <c r="B13" t="s">
+        <v>330</v>
+      </c>
+      <c r="C13" t="s">
+        <v>342</v>
+      </c>
+      <c r="D13" t="s">
+        <v>356</v>
+      </c>
+      <c r="E13" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>122</v>
+      </c>
+      <c r="B14" t="s">
+        <v>330</v>
+      </c>
+      <c r="C14" t="s">
+        <v>343</v>
+      </c>
+      <c r="D14" t="s">
+        <v>357</v>
+      </c>
+      <c r="E14" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>122</v>
+      </c>
+      <c r="B15" t="s">
+        <v>330</v>
+      </c>
+      <c r="C15" t="s">
+        <v>344</v>
+      </c>
+      <c r="D15" t="s">
+        <v>358</v>
+      </c>
+      <c r="E15" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>122</v>
+      </c>
+      <c r="B16" t="s">
+        <v>359</v>
+      </c>
+      <c r="C16" t="s">
+        <v>360</v>
+      </c>
+      <c r="D16" t="s">
+        <v>363</v>
+      </c>
+      <c r="E16" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>122</v>
+      </c>
+      <c r="B17" t="s">
+        <v>359</v>
+      </c>
+      <c r="C17" t="s">
+        <v>361</v>
+      </c>
+      <c r="D17" t="s">
+        <v>364</v>
+      </c>
+      <c r="E17" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>122</v>
+      </c>
+      <c r="B18" t="s">
+        <v>359</v>
+      </c>
+      <c r="C18" t="s">
+        <v>362</v>
+      </c>
+      <c r="D18" t="s">
+        <v>365</v>
+      </c>
+      <c r="E18" t="s">
+        <v>365</v>
       </c>
     </row>
   </sheetData>
